--- a/docs/TOGAF preperation.xlsx
+++ b/docs/TOGAF preperation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49af8b132a27b9fa/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{D26EEB95-937A-42A7-97B9-B1ACCA153CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532D2F3B-CE5D-4449-8FD6-53F119BFE9AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="34635" yWindow="4215" windowWidth="21600" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,190 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+  <si>
+    <t>PDF File</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Ch022- part0</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>TOGAF Documentation set</t>
+  </si>
+  <si>
+    <t>Core Concepts</t>
+  </si>
+  <si>
+    <t>Definitations</t>
+  </si>
+  <si>
+    <t>CH022- PARt1</t>
+  </si>
+  <si>
+    <t>Preliminary Phase</t>
+  </si>
+  <si>
+    <t>Phase A -Architecture Vision</t>
+  </si>
+  <si>
+    <t>Phase B- Business Architecture</t>
+  </si>
+  <si>
+    <t>Phase C- Inforamtion System Architecure</t>
+  </si>
+  <si>
+    <t>Data Architecture</t>
+  </si>
+  <si>
+    <t>Application Architecture</t>
+  </si>
+  <si>
+    <t>Phase D technology Architecture</t>
+  </si>
+  <si>
+    <t>Phase E Oppurtunities and solutions</t>
+  </si>
+  <si>
+    <t>Phase F- Migration Planning</t>
+  </si>
+  <si>
+    <t>Phase G - Implementation Governance</t>
+  </si>
+  <si>
+    <t>Phase H- Ar chitecture Change Management</t>
+  </si>
+  <si>
+    <t>ADM Architecture Requirement management</t>
+  </si>
+  <si>
+    <t>CH022- Part2</t>
+  </si>
+  <si>
+    <t>Architecture Principle</t>
+  </si>
+  <si>
+    <t>Stakeholder Management</t>
+  </si>
+  <si>
+    <t>Architecture Patterns</t>
+  </si>
+  <si>
+    <t>GAP Analysis</t>
+  </si>
+  <si>
+    <t>Migration Planning techniques</t>
+  </si>
+  <si>
+    <t>Interoprability requirement</t>
+  </si>
+  <si>
+    <t>Business transformation readiness assessment</t>
+  </si>
+  <si>
+    <t>risk management</t>
+  </si>
+  <si>
+    <t>architecture alternative and trade offs</t>
+  </si>
+  <si>
+    <t>CH022- Part 3</t>
+  </si>
+  <si>
+    <t>Applying Interation to ADM</t>
+  </si>
+  <si>
+    <t>Appling the adm across the architecture</t>
+  </si>
+  <si>
+    <t>architecture partitioning</t>
+  </si>
+  <si>
+    <t>CH22- aprt 4</t>
+  </si>
+  <si>
+    <t>Togaf content framework and eterprise metamodel</t>
+  </si>
+  <si>
+    <t>architectral artifacts</t>
+  </si>
+  <si>
+    <t>architecture deliverables</t>
+  </si>
+  <si>
+    <t>building blocks</t>
+  </si>
+  <si>
+    <t>enterprise continuum</t>
+  </si>
+  <si>
+    <t>architecture repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH22- Part 5 </t>
+  </si>
+  <si>
+    <t>Establishing an architecture capability</t>
+  </si>
+  <si>
+    <t>architecture governance</t>
+  </si>
+  <si>
+    <t>architecture board</t>
+  </si>
+  <si>
+    <t>architecture contracts</t>
+  </si>
+  <si>
+    <t>architecture compliance</t>
+  </si>
+  <si>
+    <t>Sub Topic</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Practice exams 2</t>
+  </si>
+  <si>
+    <t>Practice Exams 1</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Go live with exam</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +217,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +243,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +261,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +529,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E52" sqref="A1:E52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="45.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>